--- a/src/test/resources/excelData.xlsx
+++ b/src/test/resources/excelData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28020"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28021"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\my\IdeaProjects\HybridProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62EC97E-7194-478F-8F36-041428A83396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84A534F-CD96-4FFA-9240-79495400AEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,13 +378,11 @@
     <col min="1" max="1" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
